--- a/data/trans_camb/P12A1_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,34</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,28</t>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 15,8</t>
+          <t>-3,41; 2,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 13,04</t>
+          <t>-4,06; 1,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 26,05</t>
+          <t>-2,35; 4,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 12,99</t>
+          <t>-0,36; 6,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 13,47</t>
+          <t>-5,2; 1,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 25,98</t>
+          <t>-1,4; 3,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 9,01</t>
+          <t>-1,68; 2,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 8,27</t>
+          <t>0,72; 6,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 20,18</t>
+          <t>-0,27; 5,51</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 3,8</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 1,98</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 1,29</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 4,36</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 5,12</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 1,77</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,57%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,05%</t>
+          <t>-13,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>-14,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>73,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>32,21%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-4,1%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>39,1%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>36,78%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-3,4%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 43,31</t>
+          <t>-41,84; 43,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 34,5</t>
+          <t>-46,25; 37,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 73,83</t>
+          <t>-29,19; 76,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,81; 46,72</t>
+          <t>-6,05; 103,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 48,28</t>
+          <t>-35,86; 16,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 99,2</t>
+          <t>-23,49; 84,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 24,77</t>
+          <t>-29,8; 70,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 22,15</t>
+          <t>12,31; 178,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 56,62</t>
+          <t>-2,89; 87,63</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-16,29; 47,14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-23,57; 43,66</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-31,92; 26,1</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 87,45</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 77,3</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-22,35; 17,1</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,03</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,71</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 24,99</t>
+          <t>-2,31; 4,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 17,14</t>
+          <t>-1,94; 5,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 23,89</t>
+          <t>-3,97; 2,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 8,02</t>
+          <t>-0,38; 8,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 17,42</t>
+          <t>-6,95; 5,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 11,34</t>
+          <t>-5,73; 0,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 11,63</t>
+          <t>-3,34; 2,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 13,85</t>
+          <t>-3,87; 2,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 12,88</t>
+          <t>-3,58; 4,72</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 5,33</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 1,69</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 2,77</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 1,74</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 5,69</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 3,68</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>-8,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>64,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>-3,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,92%</t>
+          <t>-30,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>-7,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-8,4%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-8,2%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30,93%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-0,37%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 54,8</t>
+          <t>-25,91; 76,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 34,77</t>
+          <t>-23,59; 92,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 47,36</t>
+          <t>-44,23; 47,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,45; 19,01</t>
+          <t>-6,0; 179,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 42,85</t>
+          <t>-45,49; 69,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,32; 28,54</t>
+          <t>-54,13; 2,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 24,89</t>
+          <t>-34,35; 41,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 30,35</t>
+          <t>-37,64; 38,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,53; 28,45</t>
+          <t>-38,88; 70,83</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-47,0; 104,66</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-32,21; 24,28</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-19,44; 40,57</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-35,03; 25,01</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-11,0; 87,1</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-36,26; 47,72</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-12,37</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-16,74</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>22,81</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>3,66</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,56</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-6,9</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 22,86</t>
+          <t>-2,46; 8,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-56,92; 17,48</t>
+          <t>-2,27; 8,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-3,9; 6,84</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 46,54</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 20,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-0,88; 8,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 4,26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 10,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-21,15; 28,4</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-30,63; 14,86</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 6,92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 5,56</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 6,55</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-28,84%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-39,05%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>38,49%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>97,59%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>101,26%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>113,26%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>17,48%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-21,72%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>96,49%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>51,7%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>77,25%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,19; 167,44</t>
+          <t>-54,42; 860,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-87,12; 147,78</t>
+          <t>-56,23; 696,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-79,09; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-13,98; 431,84</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,53; 170,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-26,08; 575,09</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-67,46; 303,56</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-33,37; 526,62</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-45,49; 163,44</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-64,07; 82,57</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-11,14; 338,01</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-33,58; 277,2</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-35,75; 329,49</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 11,5</t>
+          <t>-1,43; 2,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 6,67</t>
+          <t>-1,54; 2,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 18,25</t>
+          <t>-1,94; 2,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 8,67</t>
+          <t>1,36; 6,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 10,16</t>
+          <t>-4,29; 1,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 17,27</t>
+          <t>-1,97; 1,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 7,12</t>
+          <t>-1,62; 2,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 5,4</t>
+          <t>-0,13; 3,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 15,51</t>
+          <t>-0,31; 4,3</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 3,72</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 1,56</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 1,68</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 2,66</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 4,76</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 1,55</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,9%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>58,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>-12,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,47%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,96%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>18,03%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>40,7%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-2,82%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 25,53</t>
+          <t>-19,04; 47,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 14,6</t>
+          <t>-20,33; 42,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 41,76</t>
+          <t>-24,9; 40,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 24,65</t>
+          <t>16,1; 110,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 29,1</t>
+          <t>-30,84; 16,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 49,24</t>
+          <t>-27,71; 27,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 17,64</t>
+          <t>-22,28; 39,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 12,83</t>
+          <t>-3,32; 74,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 38,64</t>
+          <t>-3,64; 63,37</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-14,51; 48,13</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-15,72; 27,48</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-13,58; 29,49</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 46,89</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>15,81; 71,25</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-19,54; 16,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
